--- a/admin/arnsberg/kreis-bochum.xlsx
+++ b/admin/arnsberg/kreis-bochum.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E4A784-4B45-4BA1-B898-5FAD9276E1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D37ACE6-4F50-45E4-8ED0-A8A7983CCE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17" yWindow="420" windowWidth="32674" windowHeight="17494" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="23649" windowHeight="16303" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fluren" sheetId="1" r:id="rId1"/>
